--- a/data.xlsx
+++ b/data.xlsx
@@ -477,7 +477,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
